--- a/Info.xlsx
+++ b/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siets\Documents\Github\filament-spool-holder-with-scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97369B8F-4C05-46D2-9A46-B8EC0D04B24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E376C211-0C66-48EA-BF19-F7E70B710908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5604" yWindow="2004" windowWidth="12528" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filament spool holder project" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>filament-spool-holder-with-scale</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>4x ball bearings</t>
-  </si>
-  <si>
-    <t>2x 5kg load cells</t>
   </si>
   <si>
     <t>arduino…</t>
@@ -142,6 +139,53 @@
   </si>
   <si>
     <t>100mm (randen ~4.5mm)</t>
+  </si>
+  <si>
+    <t>1x 20kg load cells</t>
+  </si>
+  <si>
+    <r>
+      <t>Lasercut part</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lasercut part(s)</t>
+    </r>
+  </si>
+  <si>
+    <t>1x Filament_spool_mount_V1.svg</t>
   </si>
 </sst>
 </file>
@@ -488,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,57 +557,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>12</v>
+    <row r="19" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA61231-71D8-42E6-90D5-E445051B979D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -589,61 +646,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
